--- a/exp/מאיה חיובים ינואר.xlsx
+++ b/exp/מאיה חיובים ינואר.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beniv\beniv2\benny\פיננסים\מצב פיננסי שלי\ניתוח חכם\exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beniv\beniv2\benny\פיננסים\מצבפיננסישלי\ניתוחחכם\exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BDFD9A-4D00-4998-B609-EF6ADEB9802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148AFCBC-41F1-445B-B57A-1070DCF5E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>פירוט עבור כרטיסים בארץ</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A3:N73"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -620,7 +623,9 @@
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
